--- a/doc/TeamSchedual.xlsx
+++ b/doc/TeamSchedual.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Documents\GitHub\Goofy_Lights_Editor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="9330" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Avail" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="F" sheetId="12" r:id="rId7"/>
     <sheet name="G" sheetId="14" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +213,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="105">
     <dxf>
       <fill>
         <patternFill>
@@ -315,6 +315,608 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -344,111 +946,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -730,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -838,15 +1335,15 @@
       </c>
       <c r="D8" s="8">
         <f>A!D3+B!D3+'C'!D3+D!D3+E!D3+F!D3+G!D3</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="8">
         <f>A!E3+B!E3+'C'!E3+D!E3+E!E3+F!E3+G!E3</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="8">
         <f>A!F3+B!F3+'C'!F3+D!F3+E!F3+F!F3+G!F3</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="8">
         <f>A!G3+B!G3+'C'!G3+D!G3+E!G3+F!G3+G!G3</f>
@@ -866,11 +1363,11 @@
       </c>
       <c r="B9" s="8">
         <f>A!B4+B!B4+'C'!B4+D!B4+E!B4+F!B4+G!B4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="8">
         <f>A!C4+B!C4+'C'!C4+D!C4+E!C4+F!C4+G!C4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
         <f>A!D4+B!D4+'C'!D4+D!D4+E!D4+F!D4+G!D4</f>
@@ -878,7 +1375,7 @@
       </c>
       <c r="E9" s="8">
         <f>A!E4+B!E4+'C'!E4+D!E4+E!E4+F!E4+G!E4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8">
         <f>A!F4+B!F4+'C'!F4+D!F4+E!F4+F!F4+G!F4</f>
@@ -886,11 +1383,11 @@
       </c>
       <c r="G9" s="8">
         <f>A!G4+B!G4+'C'!G4+D!G4+E!G4+F!G4+G!G4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <f>A!H4+B!H4+'C'!H4+D!H4+E!H4+F!H4+G!H4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>28</v>
@@ -906,7 +1403,7 @@
       </c>
       <c r="C10" s="8">
         <f>A!C5+B!C5+'C'!C5+D!C5+E!C5+F!C5+G!C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8">
         <f>A!D5+B!D5+'C'!D5+D!D5+E!D5+F!D5+G!D5</f>
@@ -914,7 +1411,7 @@
       </c>
       <c r="E10" s="8">
         <f>A!E5+B!E5+'C'!E5+D!E5+E!E5+F!E5+G!E5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="8">
         <f>A!F5+B!F5+'C'!F5+D!F5+E!F5+F!F5+G!F5</f>
@@ -922,11 +1419,11 @@
       </c>
       <c r="G10" s="8">
         <f>A!G5+B!G5+'C'!G5+D!G5+E!G5+F!G5+G!G5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="8">
         <f>A!H5+B!H5+'C'!H5+D!H5+E!H5+F!H5+G!H5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,7 +1436,7 @@
       </c>
       <c r="C11" s="8">
         <f>A!C6+B!C6+'C'!C6+D!C6+E!C6+F!C6+G!C6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
         <f>A!D6+B!D6+'C'!D6+D!D6+E!D6+F!D6+G!D6</f>
@@ -947,7 +1444,7 @@
       </c>
       <c r="E11" s="8">
         <f>A!E6+B!E6+'C'!E6+D!E6+E!E6+F!E6+G!E6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8">
         <f>A!F6+B!F6+'C'!F6+D!F6+E!F6+F!F6+G!F6</f>
@@ -955,11 +1452,11 @@
       </c>
       <c r="G11" s="8">
         <f>A!G6+B!G6+'C'!G6+D!G6+E!G6+F!G6+G!G6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="8">
         <f>A!H6+B!H6+'C'!H6+D!H6+E!H6+F!H6+G!H6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -972,27 +1469,27 @@
       </c>
       <c r="C12" s="8">
         <f>A!C7+B!C7+'C'!C7+D!C7+E!C7+F!C7+G!C7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8">
         <f>A!D7+B!D7+'C'!D7+D!D7+E!D7+F!D7+G!D7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="8">
         <f>A!E7+B!E7+'C'!E7+D!E7+E!E7+F!E7+G!E7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8">
         <f>A!F7+B!F7+'C'!F7+D!F7+E!F7+F!F7+G!F7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="8">
         <f>A!G7+B!G7+'C'!G7+D!G7+E!G7+F!G7+G!G7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="8">
         <f>A!H7+B!H7+'C'!H7+D!H7+E!H7+F!H7+G!H7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1005,27 +1502,27 @@
       </c>
       <c r="C13" s="8">
         <f>A!C8+B!C8+'C'!C8+D!C8+E!C8+F!C8+G!C8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="8">
         <f>A!D8+B!D8+'C'!D8+D!D8+E!D8+F!D8+G!D8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="8">
         <f>A!E8+B!E8+'C'!E8+D!E8+E!E8+F!E8+G!E8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="8">
         <f>A!F8+B!F8+'C'!F8+D!F8+E!F8+F!F8+G!F8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="8">
         <f>A!G8+B!G8+'C'!G8+D!G8+E!G8+F!G8+G!G8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="8">
         <f>A!H8+B!H8+'C'!H8+D!H8+E!H8+F!H8+G!H8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1034,31 +1531,31 @@
       </c>
       <c r="B14" s="8">
         <f>A!B9+B!B9+'C'!B9+D!B9+E!B9+F!B9+G!B9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="8">
         <f>A!C9+B!C9+'C'!C9+D!C9+E!C9+F!C9+G!C9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="8">
         <f>A!D9+B!D9+'C'!D9+D!D9+E!D9+F!D9+G!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="8">
         <f>A!E9+B!E9+'C'!E9+D!E9+E!E9+F!E9+G!E9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="8">
         <f>A!F9+B!F9+'C'!F9+D!F9+E!F9+F!F9+G!F9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
         <f>A!G9+B!G9+'C'!G9+D!G9+E!G9+F!G9+G!G9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="8">
         <f>A!H9+B!H9+'C'!H9+D!H9+E!H9+F!H9+G!H9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,7 +1564,7 @@
       </c>
       <c r="B15" s="8">
         <f>A!B10+B!B10+'C'!B10+D!B10+E!B10+F!B10+G!B10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="8">
         <f>A!C10+B!C10+'C'!C10+D!C10+E!C10+F!C10+G!C10</f>
@@ -1091,7 +1588,7 @@
       </c>
       <c r="H15" s="8">
         <f>A!H10+B!H10+'C'!H10+D!H10+E!H10+F!H10+G!H10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1100,7 +1597,7 @@
       </c>
       <c r="B16" s="8">
         <f>A!B11+B!B11+'C'!B11+D!B11+E!B11+F!B11+G!B11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8">
         <f>A!C11+B!C11+'C'!C11+D!C11+E!C11+F!C11+G!C11</f>
@@ -1124,7 +1621,7 @@
       </c>
       <c r="H16" s="8">
         <f>A!H11+B!H11+'C'!H11+D!H11+E!H11+F!H11+G!H11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1133,7 +1630,7 @@
       </c>
       <c r="B17" s="8">
         <f>A!B12+B!B12+'C'!B12+D!B12+E!B12+F!B12+G!B12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="8">
         <f>A!C12+B!C12+'C'!C12+D!C12+E!C12+F!C12+G!C12</f>
@@ -1157,7 +1654,7 @@
       </c>
       <c r="H17" s="8">
         <f>A!H12+B!H12+'C'!H12+D!H12+E!H12+F!H12+G!H12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,7 +1663,7 @@
       </c>
       <c r="B18" s="8">
         <f>A!B13+B!B13+'C'!B13+D!B13+E!B13+F!B13+G!B13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="8">
         <f>A!C13+B!C13+'C'!C13+D!C13+E!C13+F!C13+G!C13</f>
@@ -1190,7 +1687,7 @@
       </c>
       <c r="H18" s="8">
         <f>A!H13+B!H13+'C'!H13+D!H13+E!H13+F!H13+G!H13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,11 +1696,11 @@
       </c>
       <c r="B19" s="8">
         <f>A!B14+B!B14+'C'!B14+D!B14+E!B14+F!B14+G!B14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="8">
         <f>A!C14+B!C14+'C'!C14+D!C14+E!C14+F!C14+G!C14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="8">
         <f>A!D14+B!D14+'C'!D14+D!D14+E!D14+F!D14+G!D14</f>
@@ -1211,7 +1708,7 @@
       </c>
       <c r="E19" s="8">
         <f>A!E14+B!E14+'C'!E14+D!E14+E!E14+F!E14+G!E14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="8">
         <f>A!F14+B!F14+'C'!F14+D!F14+E!F14+F!F14+G!F14</f>
@@ -1219,11 +1716,11 @@
       </c>
       <c r="G19" s="8">
         <f>A!G14+B!G14+'C'!G14+D!G14+E!G14+F!G14+G!G14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="8">
         <f>A!H14+B!H14+'C'!H14+D!H14+E!H14+F!H14+G!H14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,11 +1729,11 @@
       </c>
       <c r="B20" s="8">
         <f>A!B15+B!B15+'C'!B15+D!B15+E!B15+F!B15+G!B15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8">
         <f>A!C15+B!C15+'C'!C15+D!C15+E!C15+F!C15+G!C15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="8">
         <f>A!D15+B!D15+'C'!D15+D!D15+E!D15+F!D15+G!D15</f>
@@ -1244,7 +1741,7 @@
       </c>
       <c r="E20" s="8">
         <f>A!E15+B!E15+'C'!E15+D!E15+E!E15+F!E15+G!E15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="8">
         <f>A!F15+B!F15+'C'!F15+D!F15+E!F15+F!F15+G!F15</f>
@@ -1252,11 +1749,11 @@
       </c>
       <c r="G20" s="8">
         <f>A!G15+B!G15+'C'!G15+D!G15+E!G15+F!G15+G!G15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="8">
         <f>A!H15+B!H15+'C'!H15+D!H15+E!H15+F!H15+G!H15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1265,15 +1762,15 @@
       </c>
       <c r="B21" s="8">
         <f>A!B16+B!B16+'C'!B16+D!B16+E!B16+F!B16+G!B16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="8">
         <f>A!C16+B!C16+'C'!C16+D!C16+E!C16+F!C16+G!C16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
         <f>A!D16+B!D16+'C'!D16+D!D16+E!D16+F!D16+G!D16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="8">
         <f>A!E16+B!E16+'C'!E16+D!E16+E!E16+F!E16+G!E16</f>
@@ -1281,15 +1778,15 @@
       </c>
       <c r="F21" s="8">
         <f>A!F16+B!F16+'C'!F16+D!F16+E!F16+F!F16+G!F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="8">
         <f>A!G16+B!G16+'C'!G16+D!G16+E!G16+F!G16+G!G16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="8">
         <f>A!H16+B!H16+'C'!H16+D!H16+E!H16+F!H16+G!H16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1298,15 +1795,15 @@
       </c>
       <c r="B22" s="8">
         <f>A!B17+B!B17+'C'!B17+D!B17+E!B17+F!B17+G!B17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8">
         <f>A!C17+B!C17+'C'!C17+D!C17+E!C17+F!C17+G!C17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="8">
         <f>A!D17+B!D17+'C'!D17+D!D17+E!D17+F!D17+G!D17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="8">
         <f>A!E17+B!E17+'C'!E17+D!E17+E!E17+F!E17+G!E17</f>
@@ -1314,15 +1811,15 @@
       </c>
       <c r="F22" s="8">
         <f>A!F17+B!F17+'C'!F17+D!F17+E!F17+F!F17+G!F17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="8">
         <f>A!G17+B!G17+'C'!G17+D!G17+E!G17+F!G17+G!G17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="8">
         <f>A!H17+B!H17+'C'!H17+D!H17+E!H17+F!H17+G!H17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1331,31 +1828,31 @@
       </c>
       <c r="B23" s="8">
         <f>A!B18+B!B18+'C'!B18+D!B18+E!B18+F!B18+G!B18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="8">
         <f>A!C18+B!C18+'C'!C18+D!C18+E!C18+F!C18+G!C18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8">
         <f>A!D18+B!D18+'C'!D18+D!D18+E!D18+F!D18+G!D18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="8">
         <f>A!E18+B!E18+'C'!E18+D!E18+E!E18+F!E18+G!E18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="8">
         <f>A!F18+B!F18+'C'!F18+D!F18+E!F18+F!F18+G!F18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="8">
         <f>A!G18+B!G18+'C'!G18+D!G18+E!G18+F!G18+G!G18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="8">
         <f>A!H18+B!H18+'C'!H18+D!H18+E!H18+F!H18+G!H18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,31 +1861,31 @@
       </c>
       <c r="B24" s="8">
         <f>A!B19+B!B19+'C'!B19+D!B19+E!B19+F!B19+G!B19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="8">
         <f>A!C19+B!C19+'C'!C19+D!C19+E!C19+F!C19+G!C19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="8">
         <f>A!D19+B!D19+'C'!D19+D!D19+E!D19+F!D19+G!D19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="8">
         <f>A!E19+B!E19+'C'!E19+D!E19+E!E19+F!E19+G!E19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="8">
         <f>A!F19+B!F19+'C'!F19+D!F19+E!F19+F!F19+G!F19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="8">
         <f>A!G19+B!G19+'C'!G19+D!G19+E!G19+F!G19+G!G19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="8">
         <f>A!H19+B!H19+'C'!H19+D!H19+E!H19+F!H19+G!H19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1397,31 +1894,31 @@
       </c>
       <c r="B25" s="8">
         <f>A!B20+B!B20+'C'!B20+D!B20+E!B20+F!B20+G!B20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="8">
         <f>A!C20+B!C20+'C'!C20+D!C20+E!C20+F!C20+G!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="8">
         <f>A!D20+B!D20+'C'!D20+D!D20+E!D20+F!D20+G!D20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="8">
         <f>A!E20+B!E20+'C'!E20+D!E20+E!E20+F!E20+G!E20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="8">
         <f>A!F20+B!F20+'C'!F20+D!F20+E!F20+F!F20+G!F20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="8">
         <f>A!G20+B!G20+'C'!G20+D!G20+E!G20+F!G20+G!G20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="8">
         <f>A!H20+B!H20+'C'!H20+D!H20+E!H20+F!H20+G!H20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,15 +1927,15 @@
       </c>
       <c r="B26" s="8">
         <f>A!B21+B!B21+'C'!B21+D!B21+E!B21+F!B21+G!B21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="8">
         <f>A!C21+B!C21+'C'!C21+D!C21+E!C21+F!C21+G!C21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="8">
         <f>A!D21+B!D21+'C'!D21+D!D21+E!D21+F!D21+G!D21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="8">
         <f>A!E21+B!E21+'C'!E21+D!E21+E!E21+F!E21+G!E21</f>
@@ -1450,11 +1947,11 @@
       </c>
       <c r="G26" s="8">
         <f>A!G21+B!G21+'C'!G21+D!G21+E!G21+F!G21+G!G21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="8">
         <f>A!H21+B!H21+'C'!H21+D!H21+E!H21+F!H21+G!H21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,15 +1960,15 @@
       </c>
       <c r="B27" s="8">
         <f>A!B22+B!B22+'C'!B22+D!B22+E!B22+F!B22+G!B22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="8">
         <f>A!C22+B!C22+'C'!C22+D!C22+E!C22+F!C22+G!C22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="8">
         <f>A!D22+B!D22+'C'!D22+D!D22+E!D22+F!D22+G!D22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="8">
         <f>A!E22+B!E22+'C'!E22+D!E22+E!E22+F!E22+G!E22</f>
@@ -1483,11 +1980,11 @@
       </c>
       <c r="G27" s="8">
         <f>A!G22+B!G22+'C'!G22+D!G22+E!G22+F!G22+G!G22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="8">
         <f>A!H22+B!H22+'C'!H22+D!H22+E!H22+F!H22+G!H22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,19 +1993,19 @@
       </c>
       <c r="B28" s="8">
         <f>A!B23+B!B23+'C'!B23+D!B23+E!B23+F!B23+G!B23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="8">
         <f>A!C23+B!C23+'C'!C23+D!C23+E!C23+F!C23+G!C23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="8">
         <f>A!D23+B!D23+'C'!D23+D!D23+E!D23+F!D23+G!D23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="8">
         <f>A!E23+B!E23+'C'!E23+D!E23+E!E23+F!E23+G!E23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="8">
         <f>A!F23+B!F23+'C'!F23+D!F23+E!F23+F!F23+G!F23</f>
@@ -1516,11 +2013,11 @@
       </c>
       <c r="G28" s="8">
         <f>A!G23+B!G23+'C'!G23+D!G23+E!G23+F!G23+G!G23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="8">
         <f>A!H23+B!H23+'C'!H23+D!H23+E!H23+F!H23+G!H23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,19 +2026,19 @@
       </c>
       <c r="B29" s="8">
         <f>A!B24+B!B24+'C'!B24+D!B24+E!B24+F!B24+G!B24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="8">
         <f>A!C24+B!C24+'C'!C24+D!C24+E!C24+F!C24+G!C24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="8">
         <f>A!D24+B!D24+'C'!D24+D!D24+E!D24+F!D24+G!D24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="8">
         <f>A!E24+B!E24+'C'!E24+D!E24+E!E24+F!E24+G!E24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="8">
         <f>A!F24+B!F24+'C'!F24+D!F24+E!F24+F!F24+G!F24</f>
@@ -1549,11 +2046,11 @@
       </c>
       <c r="G29" s="8">
         <f>A!G24+B!G24+'C'!G24+D!G24+E!G24+F!G24+G!G24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="8">
         <f>A!H24+B!H24+'C'!H24+D!H24+E!H24+F!H24+G!H24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,15 +2059,15 @@
       </c>
       <c r="B30" s="8">
         <f>A!B25+B!B25+'C'!B25+D!B25+E!B25+F!B25+G!B25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="8">
         <f>A!C25+B!C25+'C'!C25+D!C25+E!C25+F!C25+G!C25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="8">
         <f>A!D25+B!D25+'C'!D25+D!D25+E!D25+F!D25+G!D25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="8">
         <f>A!E25+B!E25+'C'!E25+D!E25+E!E25+F!E25+G!E25</f>
@@ -1582,11 +2079,11 @@
       </c>
       <c r="G30" s="8">
         <f>A!G25+B!G25+'C'!G25+D!G25+E!G25+F!G25+G!G25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="8">
         <f>A!H25+B!H25+'C'!H25+D!H25+E!H25+F!H25+G!H25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1595,15 +2092,15 @@
       </c>
       <c r="B31" s="8">
         <f>A!B26+B!B26+'C'!B26+D!B26+E!B26+F!B26+G!B26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="8">
         <f>A!C26+B!C26+'C'!C26+D!C26+E!C26+F!C26+G!C26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="8">
         <f>A!D26+B!D26+'C'!D26+D!D26+E!D26+F!D26+G!D26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="8">
         <f>A!E26+B!E26+'C'!E26+D!E26+E!E26+F!E26+G!E26</f>
@@ -1615,11 +2112,11 @@
       </c>
       <c r="G31" s="8">
         <f>A!G26+B!G26+'C'!G26+D!G26+E!G26+F!G26+G!G26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="8">
         <f>A!H26+B!H26+'C'!H26+D!H26+E!H26+F!H26+G!H26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,15 +2125,15 @@
       </c>
       <c r="B32" s="8">
         <f>A!B27+B!B27+'C'!B27+D!B27+E!B27+F!B27+G!B27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="8">
         <f>A!C27+B!C27+'C'!C27+D!C27+E!C27+F!C27+G!C27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8">
         <f>A!D27+B!D27+'C'!D27+D!D27+E!D27+F!D27+G!D27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="8">
         <f>A!E27+B!E27+'C'!E27+D!E27+E!E27+F!E27+G!E27</f>
@@ -1648,28 +2145,28 @@
       </c>
       <c r="G32" s="8">
         <f>A!G27+B!G27+'C'!G27+D!G27+E!G27+F!G27+G!G27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="8">
         <f>A!H27+B!H27+'C'!H27+D!H27+E!H27+F!H27+G!H27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:H32">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="greaterThanOrEqual">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="5" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2389,10 +2886,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="98" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2784,10 +3281,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="96" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3179,10 +3676,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3574,10 +4071,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="92" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3969,10 +4466,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="90" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4364,10 +4861,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4384,10 +4881,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,13 +4943,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -4469,14 +4966,26 @@
         <v>930</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4485,289 +4994,624 @@
       <c r="A5" s="2">
         <v>1000</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>100</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>130</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>200</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>230</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>300</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>330</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>400</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>430</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>500</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>530</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>600</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>630</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>700</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>730</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>800</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>830</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>900</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048576" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B1048576">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",B1048576)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",B1048576)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Input invalid" error="1 if you are free_x000a_0 if you are not" promptTitle="Input 0 or 1" prompt="1 if you are free_x000a_0 if you are not" sqref="B3:H27">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Input invalid" error="1 if you are free_x000a_0 if you are not" promptTitle="Input 0 or 1" prompt="1 if you are free_x000a_0 if you are not" sqref="B1048576 B3:H27">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/doc/TeamSchedual.xlsx
+++ b/doc/TeamSchedual.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lise\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10344" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Avail" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="F" sheetId="12" r:id="rId7"/>
     <sheet name="G" sheetId="14" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -213,7 +213,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -347,111 +347,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -541,6 +436,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -576,6 +488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,16 +659,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -765,7 +694,7 @@
         <v>Emma</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
@@ -781,7 +710,7 @@
         <v>Kevin</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
@@ -797,7 +726,7 @@
         <v>Lise</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>14</v>
@@ -824,13 +753,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>900</v>
       </c>
       <c r="B8" s="8">
         <f>A!B3+B!B3+'C'!B3+D!B3+E!B3+F!B3+G!B3</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="8">
         <f>A!C3+B!C3+'C'!C3+D!C3+E!C3+F!C3+G!C3</f>
@@ -838,7 +767,7 @@
       </c>
       <c r="D8" s="8">
         <f>A!D3+B!D3+'C'!D3+D!D3+E!D3+F!D3+G!D3</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="8">
         <f>A!E3+B!E3+'C'!E3+D!E3+E!E3+F!E3+G!E3</f>
@@ -850,17 +779,17 @@
       </c>
       <c r="G8" s="8">
         <f>A!G3+B!G3+'C'!G3+D!G3+E!G3+F!G3+G!G3</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="8">
         <f>A!H3+B!H3+'C'!H3+D!H3+E!H3+F!H3+G!H3</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>930</v>
       </c>
@@ -896,7 +825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1000</v>
       </c>
@@ -929,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1030</v>
       </c>
@@ -962,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1100</v>
       </c>
@@ -995,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1130</v>
       </c>
@@ -1028,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1200</v>
       </c>
@@ -1061,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1230</v>
       </c>
@@ -1094,13 +1023,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>100</v>
       </c>
       <c r="B16" s="8">
         <f>A!B11+B!B11+'C'!B11+D!B11+E!B11+F!B11+G!B11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8">
         <f>A!C11+B!C11+'C'!C11+D!C11+E!C11+F!C11+G!C11</f>
@@ -1124,16 +1053,16 @@
       </c>
       <c r="H16" s="8">
         <f>A!H11+B!H11+'C'!H11+D!H11+E!H11+F!H11+G!H11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>130</v>
       </c>
       <c r="B17" s="8">
         <f>A!B12+B!B12+'C'!B12+D!B12+E!B12+F!B12+G!B12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="8">
         <f>A!C12+B!C12+'C'!C12+D!C12+E!C12+F!C12+G!C12</f>
@@ -1157,16 +1086,16 @@
       </c>
       <c r="H17" s="8">
         <f>A!H12+B!H12+'C'!H12+D!H12+E!H12+F!H12+G!H12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>200</v>
       </c>
       <c r="B18" s="8">
         <f>A!B13+B!B13+'C'!B13+D!B13+E!B13+F!B13+G!B13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="8">
         <f>A!C13+B!C13+'C'!C13+D!C13+E!C13+F!C13+G!C13</f>
@@ -1190,16 +1119,16 @@
       </c>
       <c r="H18" s="8">
         <f>A!H13+B!H13+'C'!H13+D!H13+E!H13+F!H13+G!H13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>230</v>
       </c>
       <c r="B19" s="8">
         <f>A!B14+B!B14+'C'!B14+D!B14+E!B14+F!B14+G!B14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="8">
         <f>A!C14+B!C14+'C'!C14+D!C14+E!C14+F!C14+G!C14</f>
@@ -1223,16 +1152,16 @@
       </c>
       <c r="H19" s="8">
         <f>A!H14+B!H14+'C'!H14+D!H14+E!H14+F!H14+G!H14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>300</v>
       </c>
       <c r="B20" s="8">
         <f>A!B15+B!B15+'C'!B15+D!B15+E!B15+F!B15+G!B15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8">
         <f>A!C15+B!C15+'C'!C15+D!C15+E!C15+F!C15+G!C15</f>
@@ -1256,16 +1185,16 @@
       </c>
       <c r="H20" s="8">
         <f>A!H15+B!H15+'C'!H15+D!H15+E!H15+F!H15+G!H15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>330</v>
       </c>
       <c r="B21" s="8">
         <f>A!B16+B!B16+'C'!B16+D!B16+E!B16+F!B16+G!B16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="8">
         <f>A!C16+B!C16+'C'!C16+D!C16+E!C16+F!C16+G!C16</f>
@@ -1289,10 +1218,10 @@
       </c>
       <c r="H21" s="8">
         <f>A!H16+B!H16+'C'!H16+D!H16+E!H16+F!H16+G!H16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>400</v>
       </c>
@@ -1322,10 +1251,10 @@
       </c>
       <c r="H22" s="8">
         <f>A!H17+B!H17+'C'!H17+D!H17+E!H17+F!H17+G!H17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>430</v>
       </c>
@@ -1355,10 +1284,10 @@
       </c>
       <c r="H23" s="8">
         <f>A!H18+B!H18+'C'!H18+D!H18+E!H18+F!H18+G!H18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>500</v>
       </c>
@@ -1384,14 +1313,14 @@
       </c>
       <c r="G24" s="8">
         <f>A!G19+B!G19+'C'!G19+D!G19+E!G19+F!G19+G!G19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="8">
         <f>A!H19+B!H19+'C'!H19+D!H19+E!H19+F!H19+G!H19</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>530</v>
       </c>
@@ -1417,20 +1346,20 @@
       </c>
       <c r="G25" s="8">
         <f>A!G20+B!G20+'C'!G20+D!G20+E!G20+F!G20+G!G20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="8">
         <f>A!H20+B!H20+'C'!H20+D!H20+E!H20+F!H20+G!H20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>600</v>
       </c>
       <c r="B26" s="8">
         <f>A!B21+B!B21+'C'!B21+D!B21+E!B21+F!B21+G!B21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="8">
         <f>A!C21+B!C21+'C'!C21+D!C21+E!C21+F!C21+G!C21</f>
@@ -1442,7 +1371,7 @@
       </c>
       <c r="E26" s="8">
         <f>A!E21+B!E21+'C'!E21+D!E21+E!E21+F!E21+G!E21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="8">
         <f>A!F21+B!F21+'C'!F21+D!F21+E!F21+F!F21+G!F21</f>
@@ -1450,20 +1379,20 @@
       </c>
       <c r="G26" s="8">
         <f>A!G21+B!G21+'C'!G21+D!G21+E!G21+F!G21+G!G21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="8">
         <f>A!H21+B!H21+'C'!H21+D!H21+E!H21+F!H21+G!H21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>630</v>
       </c>
       <c r="B27" s="8">
         <f>A!B22+B!B22+'C'!B22+D!B22+E!B22+F!B22+G!B22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="8">
         <f>A!C22+B!C22+'C'!C22+D!C22+E!C22+F!C22+G!C22</f>
@@ -1475,7 +1404,7 @@
       </c>
       <c r="E27" s="8">
         <f>A!E22+B!E22+'C'!E22+D!E22+E!E22+F!E22+G!E22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="8">
         <f>A!F22+B!F22+'C'!F22+D!F22+E!F22+F!F22+G!F22</f>
@@ -1483,20 +1412,20 @@
       </c>
       <c r="G27" s="8">
         <f>A!G22+B!G22+'C'!G22+D!G22+E!G22+F!G22+G!G22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="8">
         <f>A!H22+B!H22+'C'!H22+D!H22+E!H22+F!H22+G!H22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>700</v>
       </c>
       <c r="B28" s="8">
         <f>A!B23+B!B23+'C'!B23+D!B23+E!B23+F!B23+G!B23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="8">
         <f>A!C23+B!C23+'C'!C23+D!C23+E!C23+F!C23+G!C23</f>
@@ -1508,7 +1437,7 @@
       </c>
       <c r="E28" s="8">
         <f>A!E23+B!E23+'C'!E23+D!E23+E!E23+F!E23+G!E23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="8">
         <f>A!F23+B!F23+'C'!F23+D!F23+E!F23+F!F23+G!F23</f>
@@ -1516,20 +1445,20 @@
       </c>
       <c r="G28" s="8">
         <f>A!G23+B!G23+'C'!G23+D!G23+E!G23+F!G23+G!G23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="8">
         <f>A!H23+B!H23+'C'!H23+D!H23+E!H23+F!H23+G!H23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>730</v>
       </c>
       <c r="B29" s="8">
         <f>A!B24+B!B24+'C'!B24+D!B24+E!B24+F!B24+G!B24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="8">
         <f>A!C24+B!C24+'C'!C24+D!C24+E!C24+F!C24+G!C24</f>
@@ -1541,7 +1470,7 @@
       </c>
       <c r="E29" s="8">
         <f>A!E24+B!E24+'C'!E24+D!E24+E!E24+F!E24+G!E24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="8">
         <f>A!F24+B!F24+'C'!F24+D!F24+E!F24+F!F24+G!F24</f>
@@ -1549,14 +1478,14 @@
       </c>
       <c r="G29" s="8">
         <f>A!G24+B!G24+'C'!G24+D!G24+E!G24+F!G24+G!G24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="8">
         <f>A!H24+B!H24+'C'!H24+D!H24+E!H24+F!H24+G!H24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>800</v>
       </c>
@@ -1589,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>830</v>
       </c>
@@ -1622,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>900</v>
       </c>
@@ -1686,16 +1615,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1704,7 +1633,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -1731,7 +1660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -1760,7 +1689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -1789,7 +1718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -1815,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -1841,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -1867,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -1893,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -1919,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -1945,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -1971,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -1997,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -2023,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -2049,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -2075,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -2101,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -2127,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -2153,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -2179,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -2205,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -2231,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -2257,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -2283,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -2309,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -2335,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -2361,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -2415,16 +2344,16 @@
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2433,7 +2362,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -2460,7 +2389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -2489,7 +2418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -2506,7 +2435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -2518,7 +2447,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -2530,7 +2459,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -2542,7 +2471,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -2554,7 +2483,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -2566,7 +2495,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -2578,7 +2507,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -2590,7 +2519,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -2602,7 +2531,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -2614,7 +2543,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -2626,7 +2555,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -2638,7 +2567,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -2650,7 +2579,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -2662,7 +2591,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -2674,7 +2603,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -2686,7 +2615,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -2698,7 +2627,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -2710,7 +2639,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -2722,7 +2651,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -2734,7 +2663,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -2746,7 +2675,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -2758,7 +2687,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -2770,7 +2699,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -2810,16 +2739,16 @@
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2828,7 +2757,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -2855,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -2884,7 +2813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -2901,7 +2830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -2913,7 +2842,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -2925,7 +2854,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -2937,7 +2866,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -2949,7 +2878,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -2961,7 +2890,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -2973,7 +2902,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -2985,7 +2914,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -2997,7 +2926,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -3009,7 +2938,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -3021,7 +2950,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -3033,7 +2962,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -3045,7 +2974,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -3057,7 +2986,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -3069,7 +2998,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -3081,7 +3010,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -3093,7 +3022,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -3105,7 +3034,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -3117,7 +3046,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -3129,7 +3058,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -3141,7 +3070,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -3153,7 +3082,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -3165,7 +3094,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -3205,16 +3134,16 @@
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3223,7 +3152,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -3250,7 +3179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -3279,7 +3208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -3296,7 +3225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -3308,7 +3237,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -3320,7 +3249,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -3332,7 +3261,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -3344,7 +3273,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -3356,7 +3285,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -3368,7 +3297,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -3380,7 +3309,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -3392,7 +3321,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -3404,7 +3333,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -3416,7 +3345,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -3428,7 +3357,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -3440,7 +3369,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -3452,7 +3381,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -3464,7 +3393,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -3476,7 +3405,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -3488,7 +3417,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -3500,7 +3429,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -3512,7 +3441,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -3524,7 +3453,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -3536,7 +3465,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -3548,7 +3477,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -3560,7 +3489,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -3600,16 +3529,16 @@
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3618,7 +3547,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -3645,7 +3574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -3674,7 +3603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -3691,7 +3620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -3703,7 +3632,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -3715,7 +3644,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -3727,7 +3656,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -3739,7 +3668,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -3751,7 +3680,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -3763,7 +3692,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -3775,7 +3704,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -3787,7 +3716,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -3799,7 +3728,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -3811,7 +3740,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -3823,7 +3752,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -3835,7 +3764,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -3847,7 +3776,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -3859,7 +3788,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -3871,7 +3800,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -3883,7 +3812,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -3895,7 +3824,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -3907,7 +3836,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -3919,7 +3848,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -3931,7 +3860,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -3943,7 +3872,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -3955,7 +3884,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -3991,20 +3920,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4013,7 +3942,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -4040,18 +3969,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -4060,307 +3989,641 @@
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
@@ -4390,16 +4653,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4408,7 +4671,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -4435,7 +4698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -4464,7 +4727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -4481,7 +4744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -4493,7 +4756,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -4505,7 +4768,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -4517,7 +4780,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -4529,7 +4792,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -4541,7 +4804,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -4553,7 +4816,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -4565,7 +4828,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -4577,7 +4840,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -4589,7 +4852,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -4601,7 +4864,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -4613,7 +4876,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -4625,7 +4888,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -4637,7 +4900,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -4649,7 +4912,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -4661,7 +4924,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -4673,7 +4936,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -4685,7 +4948,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -4697,7 +4960,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -4709,7 +4972,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -4721,7 +4984,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -4733,7 +4996,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -4745,7 +5008,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>

--- a/doc/TeamSchedual.xlsx
+++ b/doc/TeamSchedual.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Documents\GitHub\Goofy_Lights_Editor\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\Goofy_Lights_Editor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="9330" tabRatio="946" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="9330" tabRatio="946" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Avail" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="F" sheetId="12" r:id="rId7"/>
     <sheet name="G" sheetId="14" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,21 +216,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -756,11 +742,11 @@
       </c>
       <c r="B8" s="8">
         <f>A!B3+B!B3+'C'!B3+D!B3+E!B3+F!B3+G!B3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="8">
         <f>A!C3+B!C3+'C'!C3+D!C3+E!C3+F!C3+G!C3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="8">
         <f>A!D3+B!D3+'C'!D3+D!D3+E!D3+F!D3+G!D3</f>
@@ -768,19 +754,19 @@
       </c>
       <c r="E8" s="8">
         <f>A!E3+B!E3+'C'!E3+D!E3+E!E3+F!E3+G!E3</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="8">
         <f>A!F3+B!F3+'C'!F3+D!F3+E!F3+F!F3+G!F3</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="8">
         <f>A!G3+B!G3+'C'!G3+D!G3+E!G3+F!G3+G!G3</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="8">
         <f>A!H3+B!H3+'C'!H3+D!H3+E!H3+F!H3+G!H3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>27</v>
@@ -1092,31 +1078,31 @@
       </c>
       <c r="B18" s="8">
         <f>A!B13+B!B13+'C'!B13+D!B13+E!B13+F!B13+G!B13</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="8">
         <f>A!C13+B!C13+'C'!C13+D!C13+E!C13+F!C13+G!C13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8">
         <f>A!D13+B!D13+'C'!D13+D!D13+E!D13+F!D13+G!D13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="8">
         <f>A!E13+B!E13+'C'!E13+D!E13+E!E13+F!E13+G!E13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8">
         <f>A!F13+B!F13+'C'!F13+D!F13+E!F13+F!F13+G!F13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="8">
         <f>A!G13+B!G13+'C'!G13+D!G13+E!G13+F!G13+G!G13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="8">
         <f>A!H13+B!H13+'C'!H13+D!H13+E!H13+F!H13+G!H13</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1125,31 +1111,31 @@
       </c>
       <c r="B19" s="8">
         <f>A!B14+B!B14+'C'!B14+D!B14+E!B14+F!B14+G!B14</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="8">
         <f>A!C14+B!C14+'C'!C14+D!C14+E!C14+F!C14+G!C14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8">
         <f>A!D14+B!D14+'C'!D14+D!D14+E!D14+F!D14+G!D14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="8">
         <f>A!E14+B!E14+'C'!E14+D!E14+E!E14+F!E14+G!E14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="8">
         <f>A!F14+B!F14+'C'!F14+D!F14+E!F14+F!F14+G!F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="8">
         <f>A!G14+B!G14+'C'!G14+D!G14+E!G14+F!G14+G!G14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="8">
         <f>A!H14+B!H14+'C'!H14+D!H14+E!H14+F!H14+G!H14</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1158,31 +1144,31 @@
       </c>
       <c r="B20" s="8">
         <f>A!B15+B!B15+'C'!B15+D!B15+E!B15+F!B15+G!B15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="8">
         <f>A!C15+B!C15+'C'!C15+D!C15+E!C15+F!C15+G!C15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="8">
         <f>A!D15+B!D15+'C'!D15+D!D15+E!D15+F!D15+G!D15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="8">
         <f>A!E15+B!E15+'C'!E15+D!E15+E!E15+F!E15+G!E15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="8">
         <f>A!F15+B!F15+'C'!F15+D!F15+E!F15+F!F15+G!F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="8">
         <f>A!G15+B!G15+'C'!G15+D!G15+E!G15+F!G15+G!G15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="8">
         <f>A!H15+B!H15+'C'!H15+D!H15+E!H15+F!H15+G!H15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,31 +1177,31 @@
       </c>
       <c r="B21" s="8">
         <f>A!B16+B!B16+'C'!B16+D!B16+E!B16+F!B16+G!B16</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="8">
         <f>A!C16+B!C16+'C'!C16+D!C16+E!C16+F!C16+G!C16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="8">
         <f>A!D16+B!D16+'C'!D16+D!D16+E!D16+F!D16+G!D16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="8">
         <f>A!E16+B!E16+'C'!E16+D!E16+E!E16+F!E16+G!E16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="8">
         <f>A!F16+B!F16+'C'!F16+D!F16+E!F16+F!F16+G!F16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="8">
         <f>A!G16+B!G16+'C'!G16+D!G16+E!G16+F!G16+G!G16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="8">
         <f>A!H16+B!H16+'C'!H16+D!H16+E!H16+F!H16+G!H16</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1224,31 +1210,31 @@
       </c>
       <c r="B22" s="8">
         <f>A!B17+B!B17+'C'!B17+D!B17+E!B17+F!B17+G!B17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="8">
         <f>A!C17+B!C17+'C'!C17+D!C17+E!C17+F!C17+G!C17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8">
         <f>A!D17+B!D17+'C'!D17+D!D17+E!D17+F!D17+G!D17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="8">
         <f>A!E17+B!E17+'C'!E17+D!E17+E!E17+F!E17+G!E17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="8">
         <f>A!F17+B!F17+'C'!F17+D!F17+E!F17+F!F17+G!F17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="8">
         <f>A!G17+B!G17+'C'!G17+D!G17+E!G17+F!G17+G!G17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="8">
         <f>A!H17+B!H17+'C'!H17+D!H17+E!H17+F!H17+G!H17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,31 +1243,31 @@
       </c>
       <c r="B23" s="8">
         <f>A!B18+B!B18+'C'!B18+D!B18+E!B18+F!B18+G!B18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="8">
         <f>A!C18+B!C18+'C'!C18+D!C18+E!C18+F!C18+G!C18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="8">
         <f>A!D18+B!D18+'C'!D18+D!D18+E!D18+F!D18+G!D18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="8">
         <f>A!E18+B!E18+'C'!E18+D!E18+E!E18+F!E18+G!E18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="8">
         <f>A!F18+B!F18+'C'!F18+D!F18+E!F18+F!F18+G!F18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="8">
         <f>A!G18+B!G18+'C'!G18+D!G18+E!G18+F!G18+G!G18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="8">
         <f>A!H18+B!H18+'C'!H18+D!H18+E!H18+F!H18+G!H18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1290,31 +1276,31 @@
       </c>
       <c r="B24" s="8">
         <f>A!B19+B!B19+'C'!B19+D!B19+E!B19+F!B19+G!B19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="8">
         <f>A!C19+B!C19+'C'!C19+D!C19+E!C19+F!C19+G!C19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="8">
         <f>A!D19+B!D19+'C'!D19+D!D19+E!D19+F!D19+G!D19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="8">
         <f>A!E19+B!E19+'C'!E19+D!E19+E!E19+F!E19+G!E19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="8">
         <f>A!F19+B!F19+'C'!F19+D!F19+E!F19+F!F19+G!F19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="8">
         <f>A!G19+B!G19+'C'!G19+D!G19+E!G19+F!G19+G!G19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="8">
         <f>A!H19+B!H19+'C'!H19+D!H19+E!H19+F!H19+G!H19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,31 +1309,31 @@
       </c>
       <c r="B25" s="8">
         <f>A!B20+B!B20+'C'!B20+D!B20+E!B20+F!B20+G!B20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="8">
         <f>A!C20+B!C20+'C'!C20+D!C20+E!C20+F!C20+G!C20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="8">
         <f>A!D20+B!D20+'C'!D20+D!D20+E!D20+F!D20+G!D20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="8">
         <f>A!E20+B!E20+'C'!E20+D!E20+E!E20+F!E20+G!E20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="8">
         <f>A!F20+B!F20+'C'!F20+D!F20+E!F20+F!F20+G!F20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="8">
         <f>A!G20+B!G20+'C'!G20+D!G20+E!G20+F!G20+G!G20</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="8">
         <f>A!H20+B!H20+'C'!H20+D!H20+E!H20+F!H20+G!H20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1356,31 +1342,31 @@
       </c>
       <c r="B26" s="8">
         <f>A!B21+B!B21+'C'!B21+D!B21+E!B21+F!B21+G!B21</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="8">
         <f>A!C21+B!C21+'C'!C21+D!C21+E!C21+F!C21+G!C21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="8">
         <f>A!D21+B!D21+'C'!D21+D!D21+E!D21+F!D21+G!D21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="8">
         <f>A!E21+B!E21+'C'!E21+D!E21+E!E21+F!E21+G!E21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="8">
         <f>A!F21+B!F21+'C'!F21+D!F21+E!F21+F!F21+G!F21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="8">
         <f>A!G21+B!G21+'C'!G21+D!G21+E!G21+F!G21+G!G21</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="8">
         <f>A!H21+B!H21+'C'!H21+D!H21+E!H21+F!H21+G!H21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,31 +1375,31 @@
       </c>
       <c r="B27" s="8">
         <f>A!B22+B!B22+'C'!B22+D!B22+E!B22+F!B22+G!B22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="8">
         <f>A!C22+B!C22+'C'!C22+D!C22+E!C22+F!C22+G!C22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="8">
         <f>A!D22+B!D22+'C'!D22+D!D22+E!D22+F!D22+G!D22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="8">
         <f>A!E22+B!E22+'C'!E22+D!E22+E!E22+F!E22+G!E22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="8">
         <f>A!F22+B!F22+'C'!F22+D!F22+E!F22+F!F22+G!F22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="8">
         <f>A!G22+B!G22+'C'!G22+D!G22+E!G22+F!G22+G!G22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="8">
         <f>A!H22+B!H22+'C'!H22+D!H22+E!H22+F!H22+G!H22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1422,31 +1408,31 @@
       </c>
       <c r="B28" s="8">
         <f>A!B23+B!B23+'C'!B23+D!B23+E!B23+F!B23+G!B23</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="8">
         <f>A!C23+B!C23+'C'!C23+D!C23+E!C23+F!C23+G!C23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="8">
         <f>A!D23+B!D23+'C'!D23+D!D23+E!D23+F!D23+G!D23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="8">
         <f>A!E23+B!E23+'C'!E23+D!E23+E!E23+F!E23+G!E23</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="8">
         <f>A!F23+B!F23+'C'!F23+D!F23+E!F23+F!F23+G!F23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="8">
         <f>A!G23+B!G23+'C'!G23+D!G23+E!G23+F!G23+G!G23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" s="8">
         <f>A!H23+B!H23+'C'!H23+D!H23+E!H23+F!H23+G!H23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,31 +1441,31 @@
       </c>
       <c r="B29" s="8">
         <f>A!B24+B!B24+'C'!B24+D!B24+E!B24+F!B24+G!B24</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="8">
         <f>A!C24+B!C24+'C'!C24+D!C24+E!C24+F!C24+G!C24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="8">
         <f>A!D24+B!D24+'C'!D24+D!D24+E!D24+F!D24+G!D24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="8">
         <f>A!E24+B!E24+'C'!E24+D!E24+E!E24+F!E24+G!E24</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="8">
         <f>A!F24+B!F24+'C'!F24+D!F24+E!F24+F!F24+G!F24</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="8">
         <f>A!G24+B!G24+'C'!G24+D!G24+E!G24+F!G24+G!G24</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" s="8">
         <f>A!H24+B!H24+'C'!H24+D!H24+E!H24+F!H24+G!H24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,31 +1474,31 @@
       </c>
       <c r="B30" s="8">
         <f>A!B25+B!B25+'C'!B25+D!B25+E!B25+F!B25+G!B25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="8">
         <f>A!C25+B!C25+'C'!C25+D!C25+E!C25+F!C25+G!C25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="8">
         <f>A!D25+B!D25+'C'!D25+D!D25+E!D25+F!D25+G!D25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="8">
         <f>A!E25+B!E25+'C'!E25+D!E25+E!E25+F!E25+G!E25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="8">
         <f>A!F25+B!F25+'C'!F25+D!F25+E!F25+F!F25+G!F25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="8">
         <f>A!G25+B!G25+'C'!G25+D!G25+E!G25+F!G25+G!G25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="8">
         <f>A!H25+B!H25+'C'!H25+D!H25+E!H25+F!H25+G!H25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,31 +1507,31 @@
       </c>
       <c r="B31" s="8">
         <f>A!B26+B!B26+'C'!B26+D!B26+E!B26+F!B26+G!B26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="8">
         <f>A!C26+B!C26+'C'!C26+D!C26+E!C26+F!C26+G!C26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="8">
         <f>A!D26+B!D26+'C'!D26+D!D26+E!D26+F!D26+G!D26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="8">
         <f>A!E26+B!E26+'C'!E26+D!E26+E!E26+F!E26+G!E26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="8">
         <f>A!F26+B!F26+'C'!F26+D!F26+E!F26+F!F26+G!F26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="8">
         <f>A!G26+B!G26+'C'!G26+D!G26+E!G26+F!G26+G!G26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="8">
         <f>A!H26+B!H26+'C'!H26+D!H26+E!H26+F!H26+G!H26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1554,48 +1540,48 @@
       </c>
       <c r="B32" s="8">
         <f>A!B27+B!B27+'C'!B27+D!B27+E!B27+F!B27+G!B27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="8">
         <f>A!C27+B!C27+'C'!C27+D!C27+E!C27+F!C27+G!C27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="8">
         <f>A!D27+B!D27+'C'!D27+D!D27+E!D27+F!D27+G!D27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="8">
         <f>A!E27+B!E27+'C'!E27+D!E27+E!E27+F!E27+G!E27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="8">
         <f>A!F27+B!F27+'C'!F27+D!F27+E!F27+F!F27+G!F27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="8">
         <f>A!G27+B!G27+'C'!G27+D!G27+E!G27+F!G27+G!G27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="8">
         <f>A!H27+B!H27+'C'!H27+D!H27+E!H27+F!H27+G!H27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:H32">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThanOrEqual">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2315,10 +2301,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2710,10 +2696,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3105,10 +3091,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3500,10 +3486,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3522,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3576,25 +3562,25 @@
         <v>900</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>24</v>
@@ -3607,12 +3593,24 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
@@ -3621,284 +3619,606 @@
       <c r="A5" s="2">
         <v>1000</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>100</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>130</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>200</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>230</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>300</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>330</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>400</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>430</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>500</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>530</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>600</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>630</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>700</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>730</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>800</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>830</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>900</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4624,10 +4944,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4646,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5358,18 +5678,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B1048576)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B1048576)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/TeamSchedual.xlsx
+++ b/doc/TeamSchedual.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\Goofy_Lights_Editor\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Goofy_Lights_Editor\Goofy_Lights_Editor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="9330" tabRatio="946" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11208" windowHeight="9336" tabRatio="946" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Avail" sheetId="1" r:id="rId1"/>
@@ -646,12 +646,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -677,7 +677,7 @@
         <v>Emma</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
         <v>Kevin</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>Lise</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>14</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>900</v>
       </c>
@@ -746,39 +746,39 @@
       </c>
       <c r="C8" s="8">
         <f>A!C3+B!C3+'C'!C3+D!C3+E!C3+F!C3+G!C3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8">
         <f>A!D3+B!D3+'C'!D3+D!D3+E!D3+F!D3+G!D3</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="8">
         <f>A!E3+B!E3+'C'!E3+D!E3+E!E3+F!E3+G!E3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="8">
         <f>A!F3+B!F3+'C'!F3+D!F3+E!F3+F!F3+G!F3</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="8">
         <f>A!G3+B!G3+'C'!G3+D!G3+E!G3+F!G3+G!G3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="8">
         <f>A!H3+B!H3+'C'!H3+D!H3+E!H3+F!H3+G!H3</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>930</v>
       </c>
       <c r="B9" s="8">
         <f>A!B4+B!B4+'C'!B4+D!B4+E!B4+F!B4+G!B4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8">
         <f>A!C4+B!C4+'C'!C4+D!C4+E!C4+F!C4+G!C4</f>
@@ -808,7 +808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1000</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1030</v>
       </c>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1100</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
       <c r="D12" s="8">
         <f>A!D7+B!D7+'C'!D7+D!D7+E!D7+F!D7+G!D7</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="8">
         <f>A!E7+B!E7+'C'!E7+D!E7+E!E7+F!E7+G!E7</f>
@@ -896,7 +896,7 @@
       </c>
       <c r="F12" s="8">
         <f>A!F7+B!F7+'C'!F7+D!F7+E!F7+F!F7+G!F7</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="8">
         <f>A!G7+B!G7+'C'!G7+D!G7+E!G7+F!G7+G!G7</f>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1130</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
       <c r="D13" s="8">
         <f>A!D8+B!D8+'C'!D8+D!D8+E!D8+F!D8+G!D8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="8">
         <f>A!E8+B!E8+'C'!E8+D!E8+E!E8+F!E8+G!E8</f>
@@ -929,7 +929,7 @@
       </c>
       <c r="F13" s="8">
         <f>A!F8+B!F8+'C'!F8+D!F8+E!F8+F!F8+G!F8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="8">
         <f>A!G8+B!G8+'C'!G8+D!G8+E!G8+F!G8+G!G8</f>
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1200</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
       <c r="D14" s="8">
         <f>A!D9+B!D9+'C'!D9+D!D9+E!D9+F!D9+G!D9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="8">
         <f>A!E9+B!E9+'C'!E9+D!E9+E!E9+F!E9+G!E9</f>
@@ -962,7 +962,7 @@
       </c>
       <c r="F14" s="8">
         <f>A!F9+B!F9+'C'!F9+D!F9+E!F9+F!F9+G!F9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="8">
         <f>A!G9+B!G9+'C'!G9+D!G9+E!G9+F!G9+G!G9</f>
@@ -973,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1230</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
       <c r="D15" s="8">
         <f>A!D10+B!D10+'C'!D10+D!D10+E!D10+F!D10+G!D10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="8">
         <f>A!E10+B!E10+'C'!E10+D!E10+E!E10+F!E10+G!E10</f>
@@ -995,7 +995,7 @@
       </c>
       <c r="F15" s="8">
         <f>A!F10+B!F10+'C'!F10+D!F10+E!F10+F!F10+G!F10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
         <f>A!G10+B!G10+'C'!G10+D!G10+E!G10+F!G10+G!G10</f>
@@ -1006,7 +1006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>100</v>
       </c>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D16" s="8">
         <f>A!D11+B!D11+'C'!D11+D!D11+E!D11+F!D11+G!D11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="8">
         <f>A!E11+B!E11+'C'!E11+D!E11+E!E11+F!E11+G!E11</f>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="F16" s="8">
         <f>A!F11+B!F11+'C'!F11+D!F11+E!F11+F!F11+G!F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8">
         <f>A!G11+B!G11+'C'!G11+D!G11+E!G11+F!G11+G!G11</f>
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>130</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="D17" s="8">
         <f>A!D12+B!D12+'C'!D12+D!D12+E!D12+F!D12+G!D12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="8">
         <f>A!E12+B!E12+'C'!E12+D!E12+E!E12+F!E12+G!E12</f>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F17" s="8">
         <f>A!F12+B!F12+'C'!F12+D!F12+E!F12+F!F12+G!F12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="8">
         <f>A!G12+B!G12+'C'!G12+D!G12+E!G12+F!G12+G!G12</f>
@@ -1072,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>200</v>
       </c>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D18" s="8">
         <f>A!D13+B!D13+'C'!D13+D!D13+E!D13+F!D13+G!D13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="8">
         <f>A!E13+B!E13+'C'!E13+D!E13+E!E13+F!E13+G!E13</f>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="F18" s="8">
         <f>A!F13+B!F13+'C'!F13+D!F13+E!F13+F!F13+G!F13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="8">
         <f>A!G13+B!G13+'C'!G13+D!G13+E!G13+F!G13+G!G13</f>
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>230</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D19" s="8">
         <f>A!D14+B!D14+'C'!D14+D!D14+E!D14+F!D14+G!D14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="8">
         <f>A!E14+B!E14+'C'!E14+D!E14+E!E14+F!E14+G!E14</f>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F19" s="8">
         <f>A!F14+B!F14+'C'!F14+D!F14+E!F14+F!F14+G!F14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="8">
         <f>A!G14+B!G14+'C'!G14+D!G14+E!G14+F!G14+G!G14</f>
@@ -1138,13 +1138,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>300</v>
       </c>
       <c r="B20" s="8">
         <f>A!B15+B!B15+'C'!B15+D!B15+E!B15+F!B15+G!B15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="8">
         <f>A!C15+B!C15+'C'!C15+D!C15+E!C15+F!C15+G!C15</f>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D20" s="8">
         <f>A!D15+B!D15+'C'!D15+D!D15+E!D15+F!D15+G!D15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="8">
         <f>A!E15+B!E15+'C'!E15+D!E15+E!E15+F!E15+G!E15</f>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F20" s="8">
         <f>A!F15+B!F15+'C'!F15+D!F15+E!F15+F!F15+G!F15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="8">
         <f>A!G15+B!G15+'C'!G15+D!G15+E!G15+F!G15+G!G15</f>
@@ -1168,16 +1168,16 @@
       </c>
       <c r="H20" s="8">
         <f>A!H15+B!H15+'C'!H15+D!H15+E!H15+F!H15+G!H15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>330</v>
       </c>
       <c r="B21" s="8">
         <f>A!B16+B!B16+'C'!B16+D!B16+E!B16+F!B16+G!B16</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="8">
         <f>A!C16+B!C16+'C'!C16+D!C16+E!C16+F!C16+G!C16</f>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D21" s="8">
         <f>A!D16+B!D16+'C'!D16+D!D16+E!D16+F!D16+G!D16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="8">
         <f>A!E16+B!E16+'C'!E16+D!E16+E!E16+F!E16+G!E16</f>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F21" s="8">
         <f>A!F16+B!F16+'C'!F16+D!F16+E!F16+F!F16+G!F16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="8">
         <f>A!G16+B!G16+'C'!G16+D!G16+E!G16+F!G16+G!G16</f>
@@ -1201,307 +1201,307 @@
       </c>
       <c r="H21" s="8">
         <f>A!H16+B!H16+'C'!H16+D!H16+E!H16+F!H16+G!H16</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>400</v>
       </c>
       <c r="B22" s="8">
         <f>A!B17+B!B17+'C'!B17+D!B17+E!B17+F!B17+G!B17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="8">
         <f>A!C17+B!C17+'C'!C17+D!C17+E!C17+F!C17+G!C17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="8">
         <f>A!D17+B!D17+'C'!D17+D!D17+E!D17+F!D17+G!D17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="8">
         <f>A!E17+B!E17+'C'!E17+D!E17+E!E17+F!E17+G!E17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="8">
         <f>A!F17+B!F17+'C'!F17+D!F17+E!F17+F!F17+G!F17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="8">
         <f>A!G17+B!G17+'C'!G17+D!G17+E!G17+F!G17+G!G17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="8">
         <f>A!H17+B!H17+'C'!H17+D!H17+E!H17+F!H17+G!H17</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>430</v>
       </c>
       <c r="B23" s="8">
         <f>A!B18+B!B18+'C'!B18+D!B18+E!B18+F!B18+G!B18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="8">
         <f>A!C18+B!C18+'C'!C18+D!C18+E!C18+F!C18+G!C18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="8">
         <f>A!D18+B!D18+'C'!D18+D!D18+E!D18+F!D18+G!D18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="8">
         <f>A!E18+B!E18+'C'!E18+D!E18+E!E18+F!E18+G!E18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="8">
         <f>A!F18+B!F18+'C'!F18+D!F18+E!F18+F!F18+G!F18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="8">
         <f>A!G18+B!G18+'C'!G18+D!G18+E!G18+F!G18+G!G18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="8">
         <f>A!H18+B!H18+'C'!H18+D!H18+E!H18+F!H18+G!H18</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>500</v>
       </c>
       <c r="B24" s="8">
         <f>A!B19+B!B19+'C'!B19+D!B19+E!B19+F!B19+G!B19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="8">
         <f>A!C19+B!C19+'C'!C19+D!C19+E!C19+F!C19+G!C19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="8">
         <f>A!D19+B!D19+'C'!D19+D!D19+E!D19+F!D19+G!D19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="8">
         <f>A!E19+B!E19+'C'!E19+D!E19+E!E19+F!E19+G!E19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="8">
         <f>A!F19+B!F19+'C'!F19+D!F19+E!F19+F!F19+G!F19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="8">
         <f>A!G19+B!G19+'C'!G19+D!G19+E!G19+F!G19+G!G19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="8">
         <f>A!H19+B!H19+'C'!H19+D!H19+E!H19+F!H19+G!H19</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>530</v>
       </c>
       <c r="B25" s="8">
         <f>A!B20+B!B20+'C'!B20+D!B20+E!B20+F!B20+G!B20</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="8">
         <f>A!C20+B!C20+'C'!C20+D!C20+E!C20+F!C20+G!C20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="8">
         <f>A!D20+B!D20+'C'!D20+D!D20+E!D20+F!D20+G!D20</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="8">
         <f>A!E20+B!E20+'C'!E20+D!E20+E!E20+F!E20+G!E20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="8">
         <f>A!F20+B!F20+'C'!F20+D!F20+E!F20+F!F20+G!F20</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="8">
         <f>A!G20+B!G20+'C'!G20+D!G20+E!G20+F!G20+G!G20</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="8">
         <f>A!H20+B!H20+'C'!H20+D!H20+E!H20+F!H20+G!H20</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>600</v>
       </c>
       <c r="B26" s="8">
         <f>A!B21+B!B21+'C'!B21+D!B21+E!B21+F!B21+G!B21</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="8">
         <f>A!C21+B!C21+'C'!C21+D!C21+E!C21+F!C21+G!C21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="8">
         <f>A!D21+B!D21+'C'!D21+D!D21+E!D21+F!D21+G!D21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="8">
         <f>A!E21+B!E21+'C'!E21+D!E21+E!E21+F!E21+G!E21</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="8">
         <f>A!F21+B!F21+'C'!F21+D!F21+E!F21+F!F21+G!F21</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="8">
         <f>A!G21+B!G21+'C'!G21+D!G21+E!G21+F!G21+G!G21</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="8">
         <f>A!H21+B!H21+'C'!H21+D!H21+E!H21+F!H21+G!H21</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>630</v>
       </c>
       <c r="B27" s="8">
         <f>A!B22+B!B22+'C'!B22+D!B22+E!B22+F!B22+G!B22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="8">
         <f>A!C22+B!C22+'C'!C22+D!C22+E!C22+F!C22+G!C22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="8">
         <f>A!D22+B!D22+'C'!D22+D!D22+E!D22+F!D22+G!D22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="8">
         <f>A!E22+B!E22+'C'!E22+D!E22+E!E22+F!E22+G!E22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="8">
         <f>A!F22+B!F22+'C'!F22+D!F22+E!F22+F!F22+G!F22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="8">
         <f>A!G22+B!G22+'C'!G22+D!G22+E!G22+F!G22+G!G22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" s="8">
         <f>A!H22+B!H22+'C'!H22+D!H22+E!H22+F!H22+G!H22</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>700</v>
       </c>
       <c r="B28" s="8">
         <f>A!B23+B!B23+'C'!B23+D!B23+E!B23+F!B23+G!B23</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="8">
         <f>A!C23+B!C23+'C'!C23+D!C23+E!C23+F!C23+G!C23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="8">
         <f>A!D23+B!D23+'C'!D23+D!D23+E!D23+F!D23+G!D23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="8">
         <f>A!E23+B!E23+'C'!E23+D!E23+E!E23+F!E23+G!E23</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="8">
         <f>A!F23+B!F23+'C'!F23+D!F23+E!F23+F!F23+G!F23</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="8">
         <f>A!G23+B!G23+'C'!G23+D!G23+E!G23+F!G23+G!G23</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="8">
         <f>A!H23+B!H23+'C'!H23+D!H23+E!H23+F!H23+G!H23</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>730</v>
       </c>
       <c r="B29" s="8">
         <f>A!B24+B!B24+'C'!B24+D!B24+E!B24+F!B24+G!B24</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="8">
         <f>A!C24+B!C24+'C'!C24+D!C24+E!C24+F!C24+G!C24</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="8">
         <f>A!D24+B!D24+'C'!D24+D!D24+E!D24+F!D24+G!D24</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="8">
         <f>A!E24+B!E24+'C'!E24+D!E24+E!E24+F!E24+G!E24</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="8">
         <f>A!F24+B!F24+'C'!F24+D!F24+E!F24+F!F24+G!F24</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="8">
         <f>A!G24+B!G24+'C'!G24+D!G24+E!G24+F!G24+G!G24</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="8">
         <f>A!H24+B!H24+'C'!H24+D!H24+E!H24+F!H24+G!H24</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>800</v>
       </c>
       <c r="B30" s="8">
         <f>A!B25+B!B25+'C'!B25+D!B25+E!B25+F!B25+G!B25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="8">
         <f>A!C25+B!C25+'C'!C25+D!C25+E!C25+F!C25+G!C25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="8">
         <f>A!D25+B!D25+'C'!D25+D!D25+E!D25+F!D25+G!D25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="8">
         <f>A!E25+B!E25+'C'!E25+D!E25+E!E25+F!E25+G!E25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="8">
         <f>A!F25+B!F25+'C'!F25+D!F25+E!F25+F!F25+G!F25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="8">
         <f>A!G25+B!G25+'C'!G25+D!G25+E!G25+F!G25+G!G25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="8">
         <f>A!H25+B!H25+'C'!H25+D!H25+E!H25+F!H25+G!H25</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>830</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>900</v>
       </c>
@@ -1598,16 +1598,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -1643,7 +1643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -2323,20 +2323,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -2372,7 +2372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -2380,326 +2380,660 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2722,16 +3056,16 @@
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2740,7 +3074,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -2767,7 +3101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -2796,7 +3130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -2813,7 +3147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -2825,7 +3159,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -2837,7 +3171,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -2849,7 +3183,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -2861,7 +3195,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -2873,7 +3207,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -2885,7 +3219,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -2897,7 +3231,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -2909,7 +3243,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -2921,7 +3255,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -2933,7 +3267,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -2945,7 +3279,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -2957,7 +3291,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -2969,7 +3303,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -2981,7 +3315,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -2993,7 +3327,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -3005,7 +3339,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -3017,7 +3351,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -3029,7 +3363,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -3041,7 +3375,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -3053,7 +3387,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -3065,7 +3399,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -3077,7 +3411,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -3091,10 +3425,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3117,16 +3451,16 @@
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3135,7 +3469,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -3162,7 +3496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -3191,7 +3525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -3208,7 +3542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -3220,7 +3554,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -3232,7 +3566,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -3244,7 +3578,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -3256,7 +3590,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -3268,7 +3602,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -3280,7 +3614,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -3292,7 +3626,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -3304,7 +3638,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -3316,7 +3650,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -3328,7 +3662,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -3340,7 +3674,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -3352,7 +3686,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -3364,7 +3698,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -3376,7 +3710,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -3388,7 +3722,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -3400,7 +3734,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -3412,7 +3746,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -3424,7 +3758,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -3436,7 +3770,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -3448,7 +3782,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -3460,7 +3794,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -3472,7 +3806,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -3486,10 +3820,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3508,20 +3842,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3530,7 +3864,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -3557,7 +3891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -3586,7 +3920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -3615,7 +3949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -3641,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -3667,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -3693,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -3719,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -3745,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -3771,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -3797,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -3823,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -3849,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -3875,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -3901,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -3927,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -3953,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -3979,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -4005,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -4031,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -4057,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -4083,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -4109,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -4135,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -4161,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -4187,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -4215,10 +4549,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4241,16 +4575,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4259,7 +4593,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -4286,7 +4620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -4315,7 +4649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -4344,7 +4678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -4370,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -4396,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -4422,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -4448,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -4474,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -4500,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -4526,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -4552,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -4578,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -4604,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -4630,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -4656,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -4682,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -4708,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -4734,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -4760,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -4786,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -4812,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -4838,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -4864,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -4890,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -4916,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -4944,10 +5278,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4970,16 +5304,16 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4988,7 +5322,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -5015,7 +5349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>900</v>
       </c>
@@ -5044,7 +5378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>930</v>
       </c>
@@ -5073,7 +5407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -5099,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1030</v>
       </c>
@@ -5125,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100</v>
       </c>
@@ -5151,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1130</v>
       </c>
@@ -5177,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1200</v>
       </c>
@@ -5203,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1230</v>
       </c>
@@ -5229,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -5255,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -5281,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -5307,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>230</v>
       </c>
@@ -5333,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -5359,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>330</v>
       </c>
@@ -5385,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>400</v>
       </c>
@@ -5411,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>430</v>
       </c>
@@ -5437,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>500</v>
       </c>
@@ -5463,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>530</v>
       </c>
@@ -5489,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>600</v>
       </c>
@@ -5515,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>630</v>
       </c>
@@ -5541,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>700</v>
       </c>
@@ -5567,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>730</v>
       </c>
@@ -5593,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>800</v>
       </c>
@@ -5619,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>830</v>
       </c>
@@ -5645,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>900</v>
       </c>
@@ -5671,25 +6005,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048576" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:H27">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B1048576)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B1048576)))</formula>
     </cfRule>
   </conditionalFormatting>
